--- a/mosip_master/xlsx/process_list.xlsx
+++ b/mosip_master/xlsx/process_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -107,6 +107,63 @@
   </si>
   <si>
     <t xml:space="preserve">المصادقة على متن الطائرة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಲಾಗಿನ್ ದೃಢೀಕರಣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eod ದೃಢೀಕರಣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಪ್ಯಾಕೆಟ್ ದೃಢೀಕರಣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ವಿನಾಯಿತಿ ದೃಢೀಕರಣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಆನ್‌ಬೋರ್ಡ್ ದೃಢೀಕರಣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> लॉगिन प्रमाणीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">लॉगिन प्रमाणीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ईओडी प्रमाणीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पैकेट प्रमाणीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अपवाद प्रमाणीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जहाज पर प्रमाणीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">உள்நுழைவு அங்கீகாரம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eod அங்கீகாரம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பாக்கெட் அங்கீகாரம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">விதிவிலக்கு அங்கீகாரம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">உள் அங்கீகாரம்</t>
   </si>
 </sst>
 </file>
@@ -197,7 +254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -222,6 +279,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,10 +300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -525,6 +586,261 @@
         <v>8</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/mosip_master/xlsx/process_list.xlsx
+++ b/mosip_master/xlsx/process_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="47">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">hin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> लॉगिन प्रमाणीकरण</t>
   </si>
   <si>
     <t xml:space="preserve">लॉगिन प्रमाणीकरण</t>
@@ -303,7 +300,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -682,7 +679,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
@@ -696,10 +693,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
@@ -713,10 +710,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
@@ -730,10 +727,10 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
@@ -747,10 +744,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
@@ -758,16 +755,16 @@
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
@@ -775,16 +772,16 @@
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
@@ -792,16 +789,16 @@
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
@@ -809,16 +806,16 @@
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -826,16 +823,16 @@
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
